--- a/xlsx/硅谷_intext.xlsx
+++ b/xlsx/硅谷_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="400">
   <si>
     <t>硅谷</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%BD%E8%B0%B7_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>矽谷 (消歧義)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_硅谷</t>
+    <t>矽谷 (消歧义)</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_硅谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%A7%91%E6%8A%80</t>
@@ -47,19 +47,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔克拉拉縣 (加利福尼亞州)</t>
+    <t>圣塔克拉拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%BE%85%E5%A5%A7%E5%9C%96_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>帕羅奧圖 (加利福尼亞州)</t>
+    <t>帕罗奥图 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Don_Hoefler</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E6%99%AF%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>山景城 (加利福尼亞州)</t>
+    <t>山景城 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E5%B0%BC%E9%9F%A6%E5%B0%94</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E8%B2%9D%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>坎貝爾 (加利福尼亞州)</t>
+    <t>坎贝尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E5%9C%92</t>
   </si>
   <si>
-    <t>果園</t>
+    <t>果园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥 (加利福尼亞州)</t>
+    <t>圣地牙哥 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NASA</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>史丹佛大學</t>
+    <t>史丹佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E7%89%B9%E6%9B%BC</t>
@@ -239,13 +239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E4%BD%9B%E7%A0%94%E7%A9%B6%E5%9C%92%E5%8D%80</t>
   </si>
   <si>
-    <t>史丹佛研究園區</t>
+    <t>史丹佛研究园区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%9C%92%E5%8D%80</t>
   </si>
   <si>
-    <t>科學園區</t>
+    <t>科学园区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E8%AC%8A</t>
   </si>
   <si>
-    <t>測謊</t>
+    <t>测谎</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sherman_Fairchild</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%8D%E9%AB%94%E9%9B%BB%E8%B7%AF</t>
   </si>
   <si>
-    <t>積體電路</t>
+    <t>积体电路</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Monocrystalline_silicon</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E6%8D%B7%E5%8D%8A%E5%B0%8E%E9%AB%94%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>快捷半導體公司</t>
+    <t>快捷半导体公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%AE%9A%E5%BE%8B</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%8D%8A%E5%B0%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>美國國家半導體</t>
+    <t>美国国家半导体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%BE%AE</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%87%8C%E9%9B%B2</t>
   </si>
   <si>
-    <t>阿里雲</t>
+    <t>阿里云</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Adobe_Systems</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E5%A8%81%E7%88%BE%E7%A7%91%E6%8A%80%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>邁威爾科技有限公司</t>
+    <t>迈威尔科技有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Maxim_Integrated_Products</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E9%A8%B0%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>威騰電子</t>
+    <t>威腾电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Xilinx</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E9%81%94%E5%88%A9</t>
   </si>
   <si>
-    <t>雅達利</t>
+    <t>雅达利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Atmel</t>
@@ -701,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%B1%E7%A7%91%E7%92%B0%E7%90%83%E5%84%B2%E5%AD%98</t>
   </si>
   <si>
-    <t>昱科環球儲存</t>
+    <t>昱科环球储存</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Infosys</t>
@@ -797,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%BE%85%E5%A5%A7%E5%A4%9A%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>帕羅奧多研究中心</t>
+    <t>帕罗奥多研究中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/PayPal</t>
@@ -821,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E9%81%94%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>廣達電腦</t>
+    <t>广达电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Quora</t>
@@ -953,25 +953,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E5%85%8B%E8%90%8A%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>柏克萊加州大學</t>
+    <t>柏克莱加州大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%B6%AD%E6%96%AF%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>戴維斯加利福尼亞大學</t>
+    <t>戴维斯加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E9%AD%AF%E8%8C%B2%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖塔克魯茲加利福尼亞大學</t>
+    <t>圣塔克鲁兹加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%9D%B1%E7%81%A3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學東灣分校</t>
+    <t>加州州立大学东湾分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E9%82%A3%E5%B7%9E</t>
@@ -983,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B8%82</t>
@@ -1007,9 +1007,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
   </si>
   <si>
@@ -1061,25 +1058,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%AB%B9%E7%A7%91%E5%AD%B8%E5%B7%A5%E6%A5%AD%E5%9C%92%E5%8D%80</t>
   </si>
   <si>
-    <t>新竹科學工業園區</t>
+    <t>新竹科学工业园区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%83%A8%E7%A7%91%E5%AD%B8%E5%B7%A5%E6%A5%AD%E5%9C%92%E5%8D%80</t>
   </si>
   <si>
-    <t>南部科學工業園區</t>
+    <t>南部科学工业园区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E7%A7%91%E5%AD%B8%E5%B7%A5%E6%A5%AD%E5%9C%92%E5%8D%80</t>
   </si>
   <si>
-    <t>中部科學工業園區</t>
+    <t>中部科学工业园区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -1091,13 +1088,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%A2%BC%E6%B8%AF</t>
   </si>
   <si>
-    <t>數碼港</t>
+    <t>数码港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%9C%92</t>
   </si>
   <si>
-    <t>科學園</t>
+    <t>科学园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -1127,7 +1124,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%8A%A0%E7%BE%85%E7%88%BE</t>
   </si>
   <si>
-    <t>班加羅爾</t>
+    <t>班加罗尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%A5%88</t>
@@ -1181,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
@@ -1205,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -6547,7 +6544,7 @@
         <v>329</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>12</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6573,10 +6570,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>330</v>
+      </c>
+      <c r="F173" t="s">
         <v>331</v>
-      </c>
-      <c r="F173" t="s">
-        <v>332</v>
       </c>
       <c r="G173" t="n">
         <v>4</v>
@@ -6602,10 +6599,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>332</v>
+      </c>
+      <c r="F174" t="s">
         <v>333</v>
-      </c>
-      <c r="F174" t="s">
-        <v>334</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6631,10 +6628,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>334</v>
+      </c>
+      <c r="F175" t="s">
         <v>335</v>
-      </c>
-      <c r="F175" t="s">
-        <v>336</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6660,10 +6657,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>336</v>
+      </c>
+      <c r="F176" t="s">
         <v>337</v>
-      </c>
-      <c r="F176" t="s">
-        <v>338</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6689,10 +6686,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>338</v>
+      </c>
+      <c r="F177" t="s">
         <v>339</v>
-      </c>
-      <c r="F177" t="s">
-        <v>340</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6718,10 +6715,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>340</v>
+      </c>
+      <c r="F178" t="s">
         <v>341</v>
-      </c>
-      <c r="F178" t="s">
-        <v>342</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6747,10 +6744,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>342</v>
+      </c>
+      <c r="F179" t="s">
         <v>343</v>
-      </c>
-      <c r="F179" t="s">
-        <v>344</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6776,10 +6773,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>344</v>
+      </c>
+      <c r="F180" t="s">
         <v>345</v>
-      </c>
-      <c r="F180" t="s">
-        <v>346</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6805,10 +6802,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>346</v>
+      </c>
+      <c r="F181" t="s">
         <v>347</v>
-      </c>
-      <c r="F181" t="s">
-        <v>348</v>
       </c>
       <c r="G181" t="n">
         <v>4</v>
@@ -6834,10 +6831,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>348</v>
+      </c>
+      <c r="F182" t="s">
         <v>349</v>
-      </c>
-      <c r="F182" t="s">
-        <v>350</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6863,10 +6860,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>350</v>
+      </c>
+      <c r="F183" t="s">
         <v>351</v>
-      </c>
-      <c r="F183" t="s">
-        <v>352</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6892,10 +6889,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>352</v>
+      </c>
+      <c r="F184" t="s">
         <v>353</v>
-      </c>
-      <c r="F184" t="s">
-        <v>354</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6921,10 +6918,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>354</v>
+      </c>
+      <c r="F185" t="s">
         <v>355</v>
-      </c>
-      <c r="F185" t="s">
-        <v>356</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -6950,10 +6947,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>356</v>
+      </c>
+      <c r="F186" t="s">
         <v>357</v>
-      </c>
-      <c r="F186" t="s">
-        <v>358</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6979,10 +6976,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>358</v>
+      </c>
+      <c r="F187" t="s">
         <v>359</v>
-      </c>
-      <c r="F187" t="s">
-        <v>360</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7008,10 +7005,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>360</v>
+      </c>
+      <c r="F188" t="s">
         <v>361</v>
-      </c>
-      <c r="F188" t="s">
-        <v>362</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7037,10 +7034,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>362</v>
+      </c>
+      <c r="F189" t="s">
         <v>363</v>
-      </c>
-      <c r="F189" t="s">
-        <v>364</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7066,10 +7063,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>364</v>
+      </c>
+      <c r="F190" t="s">
         <v>365</v>
-      </c>
-      <c r="F190" t="s">
-        <v>366</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7095,10 +7092,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>366</v>
+      </c>
+      <c r="F191" t="s">
         <v>367</v>
-      </c>
-      <c r="F191" t="s">
-        <v>368</v>
       </c>
       <c r="G191" t="n">
         <v>3</v>
@@ -7124,10 +7121,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>368</v>
+      </c>
+      <c r="F192" t="s">
         <v>369</v>
-      </c>
-      <c r="F192" t="s">
-        <v>370</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7153,10 +7150,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>370</v>
+      </c>
+      <c r="F193" t="s">
         <v>371</v>
-      </c>
-      <c r="F193" t="s">
-        <v>372</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7182,10 +7179,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>372</v>
+      </c>
+      <c r="F194" t="s">
         <v>373</v>
-      </c>
-      <c r="F194" t="s">
-        <v>374</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7211,10 +7208,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>374</v>
+      </c>
+      <c r="F195" t="s">
         <v>375</v>
-      </c>
-      <c r="F195" t="s">
-        <v>376</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7240,10 +7237,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>376</v>
+      </c>
+      <c r="F196" t="s">
         <v>377</v>
-      </c>
-      <c r="F196" t="s">
-        <v>378</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7269,10 +7266,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>378</v>
+      </c>
+      <c r="F197" t="s">
         <v>379</v>
-      </c>
-      <c r="F197" t="s">
-        <v>380</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7298,10 +7295,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>380</v>
+      </c>
+      <c r="F198" t="s">
         <v>381</v>
-      </c>
-      <c r="F198" t="s">
-        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7327,10 +7324,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>382</v>
+      </c>
+      <c r="F199" t="s">
         <v>383</v>
-      </c>
-      <c r="F199" t="s">
-        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7356,10 +7353,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>384</v>
+      </c>
+      <c r="F200" t="s">
         <v>385</v>
-      </c>
-      <c r="F200" t="s">
-        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7385,10 +7382,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>386</v>
+      </c>
+      <c r="F201" t="s">
         <v>387</v>
-      </c>
-      <c r="F201" t="s">
-        <v>388</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7414,10 +7411,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>388</v>
+      </c>
+      <c r="F202" t="s">
         <v>389</v>
-      </c>
-      <c r="F202" t="s">
-        <v>390</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -7443,10 +7440,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>390</v>
+      </c>
+      <c r="F203" t="s">
         <v>391</v>
-      </c>
-      <c r="F203" t="s">
-        <v>392</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7472,10 +7469,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>392</v>
+      </c>
+      <c r="F204" t="s">
         <v>393</v>
-      </c>
-      <c r="F204" t="s">
-        <v>394</v>
       </c>
       <c r="G204" t="n">
         <v>3</v>
@@ -7501,10 +7498,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>394</v>
+      </c>
+      <c r="F205" t="s">
         <v>395</v>
-      </c>
-      <c r="F205" t="s">
-        <v>396</v>
       </c>
       <c r="G205" t="n">
         <v>3</v>
@@ -7530,10 +7527,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>396</v>
+      </c>
+      <c r="F206" t="s">
         <v>397</v>
-      </c>
-      <c r="F206" t="s">
-        <v>398</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7559,10 +7556,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>398</v>
+      </c>
+      <c r="F207" t="s">
         <v>399</v>
-      </c>
-      <c r="F207" t="s">
-        <v>400</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
